--- a/WIP/Users/LucPT/FAP_TestViewpoint_Login_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_Login_v1.0_EN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -3116,6 +3116,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3133,27 +3154,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3555,20 +3555,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>667897</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152857</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>391058</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57828</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3587,8 +3587,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1362075" y="666750"/>
-          <a:ext cx="8221222" cy="3277057"/>
+          <a:off x="2057400" y="533400"/>
+          <a:ext cx="3820058" cy="4858428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6303,14 +6303,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6325,12 +6325,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6342,27 +6342,27 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6371,11 +6371,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6398,10 +6398,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6419,10 +6419,10 @@
       <c r="B10" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6436,8 +6436,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6445,8 +6445,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6454,8 +6454,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6463,8 +6463,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6472,8 +6472,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6481,8 +6481,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6490,12 +6490,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6503,6 +6497,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6518,7 +6518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -8208,8 +8208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/WIP/Users/LucPT/FAP_TestViewpoint_Login_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_Login_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -678,11 +678,6 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>Check display:
-- Window 7
--Browser: Firefox, Chrome, IE</t>
-  </si>
-  <si>
     <t>1.1.1.2</t>
   </si>
   <si>
@@ -1117,6 +1112,10 @@
   </si>
   <si>
     <t>15/07/2015</t>
+  </si>
+  <si>
+    <t>Check display:
+-Browser: Firefox, Chrome</t>
   </si>
 </sst>
 </file>
@@ -3116,6 +3115,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3136,24 +3153,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6303,14 +6302,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6325,44 +6324,44 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="C4" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="C5" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="C6" s="113" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6371,11 +6370,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6398,10 +6397,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6417,12 +6416,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="110" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6431,13 +6430,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6445,8 +6444,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6454,8 +6453,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6463,8 +6462,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6472,8 +6471,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6481,8 +6480,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6490,6 +6489,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6497,12 +6502,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6518,8 +6517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6709,23 +6708,23 @@
         <v>38</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="58.5" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
       <c r="G10" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="49" t="s">
         <v>36</v>
@@ -6737,21 +6736,21 @@
         <v>38</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
       <c r="A11" s="45"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -6765,12 +6764,12 @@
       <c r="A12" s="47"/>
       <c r="B12" s="48"/>
       <c r="C12" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6783,13 +6782,13 @@
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>36</v>
@@ -6801,23 +6800,23 @@
         <v>38</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="46.5" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="48"/>
       <c r="C14" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>36</v>
@@ -6829,23 +6828,23 @@
         <v>38</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="60"/>
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>36</v>
@@ -6857,23 +6856,23 @@
         <v>38</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="27" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="60"/>
       <c r="E16" s="64"/>
       <c r="F16" s="63"/>
       <c r="G16" s="63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>36</v>
@@ -6885,23 +6884,23 @@
         <v>38</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L16" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="40.5">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="60"/>
       <c r="E17" s="64"/>
       <c r="F17" s="63"/>
       <c r="G17" s="63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>36</v>
@@ -6913,23 +6912,23 @@
         <v>38</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="40.5">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="60"/>
       <c r="E18" s="64"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>36</v>
@@ -6941,22 +6940,22 @@
         <v>38</v>
       </c>
       <c r="K18" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L18" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="61"/>
       <c r="F19" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
@@ -6969,13 +6968,13 @@
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="63"/>
       <c r="F20" s="56"/>
       <c r="G20" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>36</v>
@@ -6987,17 +6986,17 @@
         <v>38</v>
       </c>
       <c r="K20" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L20" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="63"/>
@@ -7007,23 +7006,23 @@
       <c r="I21" s="57"/>
       <c r="J21" s="58"/>
       <c r="K21" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L21" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A22" s="47"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="63"/>
       <c r="F22" s="56"/>
       <c r="G22" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>36</v>
@@ -7035,17 +7034,17 @@
         <v>38</v>
       </c>
       <c r="K22" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L22" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="63"/>
@@ -7055,23 +7054,23 @@
       <c r="I23" s="57"/>
       <c r="J23" s="58"/>
       <c r="K23" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" s="56" t="s">
         <v>157</v>
-      </c>
-      <c r="L23" s="56" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="63"/>
       <c r="F24" s="56"/>
       <c r="G24" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H24" s="49" t="s">
         <v>36</v>
@@ -7083,17 +7082,17 @@
         <v>38</v>
       </c>
       <c r="K24" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L24" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
       <c r="A25" s="47"/>
       <c r="B25" s="48"/>
       <c r="C25" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="63"/>
@@ -7103,10 +7102,10 @@
       <c r="I25" s="57"/>
       <c r="J25" s="58"/>
       <c r="K25" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L25" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1">
@@ -8208,7 +8207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -8216,7 +8215,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -8245,25 +8244,25 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="82" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="G2" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="H2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="I2" s="82" t="s">
         <v>60</v>
-      </c>
-      <c r="I2" s="82" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -8275,70 +8274,70 @@
         <v>38</v>
       </c>
       <c r="E3" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="G3" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="H3" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="I3" s="85" t="s">
         <v>65</v>
-      </c>
-      <c r="I3" s="85" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="84"/>
       <c r="D4" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="F4" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="G4" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="H4" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="I4" s="86" t="s">
         <v>71</v>
-      </c>
-      <c r="I4" s="86" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="84"/>
       <c r="F5" s="86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="84"/>
       <c r="H5" s="86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="84"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="84"/>
       <c r="D6" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="84"/>
       <c r="F6" s="84"/>
@@ -8348,7 +8347,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="84"/>
@@ -8360,7 +8359,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
@@ -8507,7 +8506,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -8515,13 +8514,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="88" t="s">
         <v>77</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -8530,7 +8529,7 @@
       </c>
       <c r="C5" s="120"/>
       <c r="D5" s="89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="89"/>
     </row>
@@ -8540,358 +8539,358 @@
         <v>38</v>
       </c>
       <c r="D6" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="91" t="s">
         <v>80</v>
-      </c>
-      <c r="E6" s="91" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="24" customHeight="1">
       <c r="B7" s="117"/>
       <c r="C7" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="E7" s="92" t="s">
         <v>83</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21.75" customHeight="1">
       <c r="B8" s="117"/>
       <c r="C8" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="E8" s="92" t="s">
         <v>86</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="117"/>
       <c r="C9" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="E9" s="94" t="s">
         <v>89</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="23.25" customHeight="1">
       <c r="B10" s="118"/>
       <c r="C10" s="90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="92" t="s">
         <v>91</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.25" customHeight="1">
       <c r="B11" s="119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="120"/>
       <c r="D11" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="89"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="116"/>
       <c r="C12" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="96" t="s">
-        <v>95</v>
-      </c>
       <c r="E12" s="96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="117"/>
       <c r="C13" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="E13" s="91" t="s">
         <v>97</v>
-      </c>
-      <c r="E13" s="91" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="38.25">
       <c r="B14" s="117"/>
       <c r="C14" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="E14" s="92" t="s">
         <v>100</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="118"/>
       <c r="C15" s="95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="96"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="119" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="120"/>
       <c r="D16" s="89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="89"/>
     </row>
     <row r="17" spans="2:5" ht="25.5">
       <c r="B17" s="116"/>
       <c r="C17" s="90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="91" t="s">
         <v>104</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5">
       <c r="B18" s="117"/>
       <c r="C18" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="97" t="s">
         <v>106</v>
-      </c>
-      <c r="D18" s="97" t="s">
-        <v>107</v>
       </c>
       <c r="E18" s="96"/>
     </row>
     <row r="19" spans="2:5" ht="38.25">
       <c r="B19" s="117"/>
       <c r="C19" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="E19" s="92" t="s">
         <v>109</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="117"/>
       <c r="C20" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="96" t="s">
         <v>111</v>
-      </c>
-      <c r="D20" s="96" t="s">
-        <v>112</v>
       </c>
       <c r="E20" s="96"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="118"/>
       <c r="C21" s="90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" s="91"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="119" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="120"/>
       <c r="D22" s="89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E22" s="89"/>
     </row>
     <row r="23" spans="2:5" ht="51">
       <c r="B23" s="116"/>
       <c r="C23" s="90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="91" t="s">
         <v>115</v>
-      </c>
-      <c r="E23" s="91" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="25.5">
       <c r="B24" s="117"/>
       <c r="C24" s="90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="92" t="s">
         <v>117</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="118"/>
       <c r="C25" s="95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="96"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="119" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="120"/>
       <c r="D26" s="89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" s="89"/>
     </row>
     <row r="27" spans="2:5" ht="127.5">
       <c r="B27" s="116"/>
       <c r="C27" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="92" t="s">
         <v>120</v>
-      </c>
-      <c r="E27" s="92" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="117"/>
       <c r="C28" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="96" t="s">
-        <v>123</v>
-      </c>
       <c r="E28" s="96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="117"/>
       <c r="C29" s="90" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="91" t="s">
         <v>124</v>
-      </c>
-      <c r="E29" s="91" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="117"/>
       <c r="C30" s="90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="91" t="s">
         <v>126</v>
-      </c>
-      <c r="E30" s="91" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="118"/>
       <c r="C31" s="95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="96"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="120"/>
       <c r="D32" s="89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" s="89"/>
     </row>
     <row r="33" spans="2:5" ht="38.25">
       <c r="B33" s="116"/>
       <c r="C33" s="98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="100" t="s">
         <v>129</v>
-      </c>
-      <c r="E33" s="100" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="117"/>
       <c r="C34" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="E34" s="94" t="s">
         <v>132</v>
-      </c>
-      <c r="E34" s="94" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="117"/>
       <c r="C35" s="95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="96"/>
     </row>
     <row r="36" spans="2:5" ht="25.5">
       <c r="B36" s="117"/>
       <c r="C36" s="90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="92" t="s">
         <v>135</v>
-      </c>
-      <c r="E36" s="92" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="118"/>
       <c r="C37" s="95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E37" s="96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
